--- a/extra/Organizer.xlsx
+++ b/extra/Organizer.xlsx
@@ -650,7 +650,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +662,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -678,7 +684,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -756,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,58 +776,61 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
@@ -1141,17 +1150,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1165,17 +1174,17 @@
       <c r="D1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="21">
         <v>5</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
@@ -1186,11 +1195,11 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
@@ -1201,11 +1210,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
@@ -1216,30 +1225,30 @@
       <c r="D4" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="21">
         <v>7</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3" t="s">
@@ -1250,11 +1259,11 @@
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3"/>
@@ -1263,15 +1272,15 @@
       <c r="D7" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="21">
         <v>3</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3"/>
@@ -1280,11 +1289,11 @@
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3"/>
@@ -1293,11 +1302,11 @@
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3"/>
@@ -1306,15 +1315,15 @@
       <c r="D10" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="21">
         <v>15</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="15"/>
@@ -1323,11 +1332,11 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="15"/>
@@ -1336,11 +1345,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1369,16 +1378,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="46.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="46.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="46.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="18" width="71.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="46.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="46.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="46.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="19" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="71.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1439,7 +1448,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="74.25">
       <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.75">
       <c r="A5" s="11" t="s">
         <v>68</v>
       </c>
@@ -1503,7 +1512,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="51.75">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="63">
       <c r="A7" s="12" t="s">
         <v>85</v>
       </c>
@@ -1597,7 +1606,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.75">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
@@ -1655,7 +1664,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.75">
       <c r="A12" s="12" t="s">
         <v>108</v>
       </c>
@@ -1687,7 +1696,7 @@
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39.75">
       <c r="A13" s="12" t="s">
         <v>116</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="63">
       <c r="A14" s="11" t="s">
         <v>122</v>
       </c>
@@ -1751,7 +1760,7 @@
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="63">
       <c r="A15" s="12" t="s">
         <v>129</v>
       </c>
@@ -2111,7 +2120,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="J29" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="15"/>
@@ -2123,7 +2132,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="J30" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="15"/>
